--- a/inputs/tempRxns_v01.xlsx
+++ b/inputs/tempRxns_v01.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rasools/Box Sync/phd/ppf/scripts/humanSec/HumanSec/inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rasools/Box Sync/phd/ppf/scripts/HumanSec/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E416A2-8C99-5742-9EB9-CE31DB52D9A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="5760" windowWidth="23880" windowHeight="14620" tabRatio="500"/>
+    <workbookView xWindow="11960" yWindow="3080" windowWidth="23880" windowHeight="14620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tempRxns" sheetId="9" r:id="rId1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="463">
   <si>
     <t>SEC61A1,  SEC61B, SEC61G</t>
   </si>
@@ -1401,12 +1402,30 @@
   </si>
   <si>
     <t>XXX_preNG[r] + ? (Glc)3 (GlcNAc)2 (Man)9 (PP-Dol)1[r] + OST[r] =&gt; H+[r] + XXX-G3M9[r] + ? dolichyl-diphosphate[r] + DDOST[r] + RPN1[r] + RPN2[r] + DAD1[r] + STT3A[r] + STT3B[r]</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>s0</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
     <font>
       <sz val="12"/>
@@ -1729,11 +1748,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="E125" sqref="E125"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1747,7 +1766,7 @@
     <col min="7" max="7" width="55.5" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="17">
       <c r="A1" s="2" t="s">
         <v>429</v>
       </c>
@@ -1770,15 +1789,15 @@
         <v>435</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="17">
       <c r="A2" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C2" s="4">
-        <v>6</v>
+      <c r="C2" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
@@ -1790,15 +1809,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="17">
       <c r="A3" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="4">
-        <v>6</v>
+      <c r="C3" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>1</v>
@@ -1810,15 +1829,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="17">
       <c r="A4" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C4" s="4">
-        <v>4</v>
+      <c r="C4" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>2</v>
@@ -1830,15 +1849,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="17">
       <c r="A5" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C5" s="4">
-        <v>4</v>
+      <c r="C5" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>319</v>
@@ -1847,15 +1866,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="17">
       <c r="A6" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C6" s="4">
-        <v>9</v>
+      <c r="C6" s="4" t="s">
+        <v>462</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>2</v>
@@ -1867,15 +1886,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="17">
       <c r="A7" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C7" s="4">
-        <v>4</v>
+      <c r="C7" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>3</v>
@@ -1887,15 +1906,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="17">
       <c r="A8" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C8" s="4">
-        <v>4</v>
+      <c r="C8" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>321</v>
@@ -1904,15 +1923,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="17">
       <c r="A9" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C9" s="4">
-        <v>9</v>
+      <c r="C9" s="4" t="s">
+        <v>462</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>3</v>
@@ -1924,15 +1943,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="17">
       <c r="A10" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C10" s="4">
-        <v>4</v>
+      <c r="C10" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>4</v>
@@ -1944,15 +1963,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="17">
       <c r="A11" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C11" s="4">
-        <v>4</v>
+      <c r="C11" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>5</v>
@@ -1964,15 +1983,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="17">
       <c r="A12" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C12" s="4">
-        <v>4</v>
+      <c r="C12" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
@@ -1984,15 +2003,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="17">
       <c r="A13" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C13" s="4">
-        <v>9</v>
+      <c r="C13" s="4" t="s">
+        <v>462</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>4</v>
@@ -2004,15 +2023,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="17">
       <c r="A14" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C14" s="4">
-        <v>9</v>
+      <c r="C14" s="4" t="s">
+        <v>462</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>5</v>
@@ -2024,15 +2043,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="17">
       <c r="A15" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="C15" s="4">
-        <v>9</v>
+      <c r="C15" s="4" t="s">
+        <v>462</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>6</v>
@@ -2044,15 +2063,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="17">
       <c r="A16" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C16" s="4">
-        <v>4</v>
+      <c r="C16" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>325</v>
@@ -2061,15 +2080,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="17">
       <c r="A17" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C17" s="4">
-        <v>4</v>
+      <c r="C17" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>325</v>
@@ -2078,15 +2097,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="17">
       <c r="A18" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C18" s="4">
-        <v>4</v>
+      <c r="C18" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>325</v>
@@ -2095,15 +2114,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="17">
       <c r="A19" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C19" s="4">
-        <v>6</v>
+      <c r="C19" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>7</v>
@@ -2115,15 +2134,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="17">
       <c r="A20" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C20" s="4">
-        <v>6</v>
+      <c r="C20" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>327</v>
@@ -2132,15 +2151,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="17">
       <c r="A21" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C21" s="4">
-        <v>6</v>
+      <c r="C21" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>327</v>
@@ -2149,15 +2168,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="17">
       <c r="A22" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C22" s="4">
-        <v>9</v>
+      <c r="C22" s="4" t="s">
+        <v>462</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>327</v>
@@ -2166,15 +2185,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="32">
+    <row r="23" spans="1:7" ht="34">
       <c r="A23" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C23" s="4">
-        <v>4</v>
+      <c r="C23" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>8</v>
@@ -2186,15 +2205,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="48">
+    <row r="24" spans="1:7" ht="51">
       <c r="A24" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C24" s="4">
-        <v>4</v>
+      <c r="C24" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>8</v>
@@ -2206,15 +2225,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="48">
+    <row r="25" spans="1:7" ht="51">
       <c r="A25" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C25" s="4">
-        <v>4</v>
+      <c r="C25" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>8</v>
@@ -2226,15 +2245,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="17">
       <c r="A26" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C26" s="4">
-        <v>4</v>
+      <c r="C26" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>8</v>
@@ -2246,15 +2265,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="32">
+    <row r="27" spans="1:7" ht="34">
       <c r="A27" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C27" s="4">
-        <v>4</v>
+      <c r="C27" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>9</v>
@@ -2266,15 +2285,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="80">
+    <row r="28" spans="1:7" ht="85">
       <c r="A28" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C28" s="4">
-        <v>4</v>
+      <c r="C28" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>10</v>
@@ -2286,15 +2305,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="17">
       <c r="A29" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C29" s="4">
-        <v>4</v>
+      <c r="C29" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>331</v>
@@ -2303,15 +2322,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" ht="17">
       <c r="A30" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C30" s="4">
-        <v>9</v>
+      <c r="C30" s="4" t="s">
+        <v>462</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>331</v>
@@ -2320,15 +2339,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" ht="17">
       <c r="A31" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C31" s="4">
-        <v>4</v>
+      <c r="C31" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>331</v>
@@ -2337,15 +2356,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" ht="17">
       <c r="A32" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C32" s="4">
-        <v>6</v>
+      <c r="C32" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>11</v>
@@ -2357,15 +2376,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" ht="17">
       <c r="A33" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C33" s="4">
-        <v>9</v>
+      <c r="C33" s="4" t="s">
+        <v>462</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>11</v>
@@ -2377,29 +2396,29 @@
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" ht="17">
       <c r="A34" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C34" s="4">
-        <v>6</v>
+      <c r="C34" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" ht="17">
       <c r="A35" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="C35" s="4">
-        <v>6</v>
+      <c r="C35" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>12</v>
@@ -2411,15 +2430,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" ht="17">
       <c r="A36" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C36" s="4">
-        <v>6</v>
+      <c r="C36" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>13</v>
@@ -2431,15 +2450,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" ht="17">
       <c r="A37" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C37" s="4">
-        <v>6</v>
+      <c r="C37" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>12</v>
@@ -2451,15 +2470,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" ht="17">
       <c r="A38" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C38" s="4">
-        <v>6</v>
+      <c r="C38" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>14</v>
@@ -2471,15 +2490,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" ht="17">
       <c r="A39" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C39" s="4">
-        <v>6</v>
+      <c r="C39" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>15</v>
@@ -2491,15 +2510,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" ht="17">
       <c r="A40" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C40" s="4">
-        <v>6</v>
+      <c r="C40" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>16</v>
@@ -2511,15 +2530,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="32">
+    <row r="41" spans="1:7" ht="34">
       <c r="A41" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C41" s="4">
-        <v>4</v>
+      <c r="C41" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>17</v>
@@ -2531,15 +2550,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" ht="17">
       <c r="A42" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C42" s="4">
-        <v>9</v>
+      <c r="C42" s="4" t="s">
+        <v>462</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>17</v>
@@ -2551,15 +2570,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="48">
+    <row r="43" spans="1:7" ht="51">
       <c r="A43" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C43" s="4">
-        <v>4</v>
+      <c r="C43" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>8</v>
@@ -2571,15 +2590,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" ht="17">
       <c r="A44" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C44" s="4">
-        <v>4</v>
+      <c r="C44" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>18</v>
@@ -2591,15 +2610,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" ht="17">
       <c r="A45" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C45" s="4">
-        <v>6</v>
+      <c r="C45" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>19</v>
@@ -2611,15 +2630,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" ht="17">
       <c r="A46" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C46" s="4">
-        <v>6</v>
+      <c r="C46" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>20</v>
@@ -2631,15 +2650,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" ht="17">
       <c r="A47" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C47" s="4">
-        <v>9</v>
+      <c r="C47" s="4" t="s">
+        <v>462</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>20</v>
@@ -2651,15 +2670,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="32">
+    <row r="48" spans="1:7" ht="34">
       <c r="A48" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C48" s="4">
-        <v>6</v>
+      <c r="C48" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>342</v>
@@ -2668,15 +2687,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" ht="17">
       <c r="A49" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="C49" s="4">
-        <v>9</v>
+      <c r="C49" s="4" t="s">
+        <v>462</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>1</v>
@@ -2688,15 +2707,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="48">
+    <row r="50" spans="1:7" ht="51">
       <c r="A50" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C50" s="4">
-        <v>4</v>
+      <c r="C50" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>21</v>
@@ -2708,15 +2727,15 @@
         <v>401</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="64">
+    <row r="51" spans="1:7" ht="68">
       <c r="A51" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C51" s="4">
-        <v>11</v>
+      <c r="C51" s="4" t="s">
+        <v>457</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>22</v>
@@ -2731,15 +2750,15 @@
         <v>401</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="48">
+    <row r="52" spans="1:7" ht="51">
       <c r="A52" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C52" s="4">
-        <v>4</v>
+      <c r="C52" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>23</v>
@@ -2754,15 +2773,15 @@
         <v>402</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="48">
+    <row r="53" spans="1:7" ht="51">
       <c r="A53" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C53" s="4">
-        <v>6</v>
+      <c r="C53" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>197</v>
@@ -2774,15 +2793,15 @@
         <v>402</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="48">
+    <row r="54" spans="1:7" ht="51">
       <c r="A54" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C54" s="4">
-        <v>6</v>
+      <c r="C54" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>24</v>
@@ -2794,15 +2813,15 @@
         <v>402</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" ht="17">
       <c r="A55" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C55" s="4">
-        <v>6</v>
+      <c r="C55" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>25</v>
@@ -2814,15 +2833,15 @@
         <v>403</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" ht="17">
       <c r="A56" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C56" s="4">
-        <v>6</v>
+      <c r="C56" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>26</v>
@@ -2834,15 +2853,15 @@
         <v>404</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="48">
+    <row r="57" spans="1:7" ht="51">
       <c r="A57" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C57" s="4">
-        <v>4</v>
+      <c r="C57" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>27</v>
@@ -2851,15 +2870,15 @@
         <v>403</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="48">
+    <row r="58" spans="1:7" ht="51">
       <c r="A58" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C58" s="4">
-        <v>4</v>
+      <c r="C58" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>348</v>
@@ -2868,15 +2887,15 @@
         <v>403</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="48">
+    <row r="59" spans="1:7" ht="51">
       <c r="A59" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C59" s="4">
-        <v>6</v>
+      <c r="C59" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>28</v>
@@ -2885,15 +2904,15 @@
         <v>403</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="48">
+    <row r="60" spans="1:7" ht="51">
       <c r="A60" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C60" s="4">
-        <v>4</v>
+      <c r="C60" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>27</v>
@@ -2905,15 +2924,15 @@
         <v>404</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="48">
+    <row r="61" spans="1:7" ht="51">
       <c r="A61" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C61" s="4">
-        <v>4</v>
+      <c r="C61" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>348</v>
@@ -2922,15 +2941,15 @@
         <v>404</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="48">
+    <row r="62" spans="1:7" ht="51">
       <c r="A62" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C62" s="4">
-        <v>6</v>
+      <c r="C62" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>28</v>
@@ -2939,15 +2958,15 @@
         <v>404</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" ht="17">
       <c r="A63" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C63" s="4">
-        <v>6</v>
+      <c r="C63" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>25</v>
@@ -2959,15 +2978,15 @@
         <v>405</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" ht="17">
       <c r="A64" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C64" s="4">
-        <v>6</v>
+      <c r="C64" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>25</v>
@@ -2979,15 +2998,15 @@
         <v>406</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="48">
+    <row r="65" spans="1:7" ht="51">
       <c r="A65" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C65" s="4">
-        <v>4</v>
+      <c r="C65" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>27</v>
@@ -2999,15 +3018,15 @@
         <v>407</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="48">
+    <row r="66" spans="1:7" ht="51">
       <c r="A66" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C66" s="4">
-        <v>4</v>
+      <c r="C66" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>348</v>
@@ -3016,15 +3035,15 @@
         <v>407</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="48">
+    <row r="67" spans="1:7" ht="51">
       <c r="A67" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C67" s="4">
-        <v>6</v>
+      <c r="C67" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>29</v>
@@ -3033,15 +3052,15 @@
         <v>407</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="32">
+    <row r="68" spans="1:7" ht="34">
       <c r="A68" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C68" s="4">
-        <v>6</v>
+      <c r="C68" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>30</v>
@@ -3053,15 +3072,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="48">
+    <row r="69" spans="1:7" ht="51">
       <c r="A69" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C69" s="4">
-        <v>6</v>
+      <c r="C69" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>31</v>
@@ -3076,15 +3095,15 @@
         <v>408</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" ht="17">
       <c r="A70" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C70" s="4">
-        <v>6</v>
+      <c r="C70" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>198</v>
@@ -3096,15 +3115,15 @@
         <v>409</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" ht="17">
       <c r="A71" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C71" s="4">
-        <v>6</v>
+      <c r="C71" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>198</v>
@@ -3116,15 +3135,15 @@
         <v>409</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" ht="17">
       <c r="A72" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C72" s="4">
-        <v>6</v>
+      <c r="C72" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>198</v>
@@ -3136,15 +3155,15 @@
         <v>409</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" ht="17">
       <c r="A73" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C73" s="4">
-        <v>6</v>
+      <c r="C73" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>198</v>
@@ -3156,15 +3175,15 @@
         <v>409</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="32">
+    <row r="74" spans="1:7" ht="34">
       <c r="A74" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C74" s="4">
-        <v>6</v>
+      <c r="C74" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>32</v>
@@ -3179,15 +3198,15 @@
         <v>409</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="32">
+    <row r="75" spans="1:7" ht="34">
       <c r="A75" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C75" s="4">
-        <v>6</v>
+      <c r="C75" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>33</v>
@@ -3202,15 +3221,15 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="32">
+    <row r="76" spans="1:7" ht="34">
       <c r="A76" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C76" s="4">
-        <v>6</v>
+      <c r="C76" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>34</v>
@@ -3225,15 +3244,15 @@
         <v>409</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="64">
+    <row r="77" spans="1:7" ht="68">
       <c r="A77" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C77" s="4">
-        <v>6</v>
+      <c r="C77" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>35</v>
@@ -3248,15 +3267,15 @@
         <v>409</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="32">
+    <row r="78" spans="1:7" ht="34">
       <c r="A78" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C78" s="4">
-        <v>4</v>
+      <c r="C78" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>36</v>
@@ -3271,15 +3290,15 @@
         <v>409</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="32">
+    <row r="79" spans="1:7" ht="34">
       <c r="A79" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C79" s="4">
-        <v>4</v>
+      <c r="C79" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>198</v>
@@ -3291,15 +3310,15 @@
         <v>409</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="96">
+    <row r="80" spans="1:7" ht="102">
       <c r="A80" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C80" s="4">
-        <v>4</v>
+      <c r="C80" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>198</v>
@@ -3311,15 +3330,15 @@
         <v>409</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" ht="17">
       <c r="A81" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C81" s="4">
-        <v>9</v>
+      <c r="C81" s="4" t="s">
+        <v>462</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>359</v>
@@ -3328,15 +3347,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="32">
+    <row r="82" spans="1:7" ht="34">
       <c r="A82" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C82" s="4">
-        <v>6</v>
+      <c r="C82" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>37</v>
@@ -3348,15 +3367,15 @@
         <v>409</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" ht="17">
       <c r="A83" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C83" s="4">
-        <v>7</v>
+      <c r="C83" s="4" t="s">
+        <v>461</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>360</v>
@@ -3365,15 +3384,15 @@
         <v>410</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" ht="17">
       <c r="A84" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C84" s="4">
-        <v>7</v>
+      <c r="C84" s="4" t="s">
+        <v>461</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>361</v>
@@ -3382,15 +3401,15 @@
         <v>410</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" ht="17">
       <c r="A85" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C85" s="4">
-        <v>7</v>
+      <c r="C85" s="4" t="s">
+        <v>461</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>362</v>
@@ -3399,15 +3418,15 @@
         <v>410</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="32">
+    <row r="86" spans="1:7" ht="34">
       <c r="A86" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C86" s="4">
-        <v>7</v>
+      <c r="C86" s="4" t="s">
+        <v>461</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>363</v>
@@ -3416,15 +3435,15 @@
         <v>410</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" ht="17">
       <c r="A87" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C87" s="4">
-        <v>7</v>
+      <c r="C87" s="4" t="s">
+        <v>461</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>364</v>
@@ -3433,15 +3452,15 @@
         <v>410</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" ht="17">
       <c r="A88" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C88" s="4">
-        <v>7</v>
+      <c r="C88" s="4" t="s">
+        <v>461</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>365</v>
@@ -3450,15 +3469,15 @@
         <v>410</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="32">
+    <row r="89" spans="1:7" ht="34">
       <c r="A89" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C89" s="4">
-        <v>7</v>
+      <c r="C89" s="4" t="s">
+        <v>461</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>365</v>
@@ -3467,29 +3486,29 @@
         <v>410</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="32">
+    <row r="90" spans="1:7" ht="34">
       <c r="A90" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C90" s="4">
-        <v>7</v>
+      <c r="C90" s="4" t="s">
+        <v>461</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="32">
+    <row r="91" spans="1:7" ht="34">
       <c r="A91" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C91" s="4">
-        <v>7</v>
+      <c r="C91" s="4" t="s">
+        <v>461</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>367</v>
@@ -3498,15 +3517,15 @@
         <v>411</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="32">
+    <row r="92" spans="1:7" ht="34">
       <c r="A92" s="2" t="s">
         <v>146</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C92" s="4">
-        <v>7</v>
+      <c r="C92" s="4" t="s">
+        <v>461</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>368</v>
@@ -3515,99 +3534,99 @@
         <v>411</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="32">
+    <row r="93" spans="1:7" ht="34">
       <c r="A93" s="2" t="s">
         <v>147</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C93" s="4">
-        <v>7</v>
+      <c r="C93" s="4" t="s">
+        <v>461</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" ht="17">
       <c r="A94" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C94" s="4">
-        <v>7</v>
+      <c r="C94" s="4" t="s">
+        <v>461</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="32">
+    <row r="95" spans="1:7" ht="34">
       <c r="A95" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C95" s="4">
-        <v>7</v>
+      <c r="C95" s="4" t="s">
+        <v>461</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="32">
+    <row r="96" spans="1:7" ht="34">
       <c r="A96" s="2" t="s">
         <v>150</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C96" s="4">
-        <v>7</v>
+      <c r="C96" s="4" t="s">
+        <v>461</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="32">
+    <row r="97" spans="1:7" ht="34">
       <c r="A97" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C97" s="4">
-        <v>7</v>
+      <c r="C97" s="4" t="s">
+        <v>461</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="32">
+    <row r="98" spans="1:7" ht="34">
       <c r="A98" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="C98" s="4">
-        <v>7</v>
+      <c r="C98" s="4" t="s">
+        <v>461</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="32">
+    <row r="99" spans="1:7" ht="34">
       <c r="A99" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C99" s="4">
-        <v>7</v>
+      <c r="C99" s="4" t="s">
+        <v>461</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>199</v>
@@ -3619,15 +3638,15 @@
         <v>412</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="32">
+    <row r="100" spans="1:7" ht="34">
       <c r="A100" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C100" s="4">
-        <v>7</v>
+      <c r="C100" s="4" t="s">
+        <v>461</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>38</v>
@@ -3642,15 +3661,15 @@
         <v>412</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="32">
+    <row r="101" spans="1:7" ht="34">
       <c r="A101" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C101" s="4">
-        <v>7</v>
+      <c r="C101" s="4" t="s">
+        <v>461</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>38</v>
@@ -3665,15 +3684,15 @@
         <v>412</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="32">
+    <row r="102" spans="1:7" ht="34">
       <c r="A102" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C102" s="4">
-        <v>7</v>
+      <c r="C102" s="4" t="s">
+        <v>461</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>200</v>
@@ -3685,15 +3704,15 @@
         <v>411</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="32">
+    <row r="103" spans="1:7" ht="34">
       <c r="A103" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C103" s="4">
-        <v>7</v>
+      <c r="C103" s="4" t="s">
+        <v>461</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>200</v>
@@ -3705,15 +3724,15 @@
         <v>411</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="32">
+    <row r="104" spans="1:7" ht="34">
       <c r="A104" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C104" s="4">
-        <v>7</v>
+      <c r="C104" s="4" t="s">
+        <v>461</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>200</v>
@@ -3725,15 +3744,15 @@
         <v>411</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" ht="17">
       <c r="A105" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="C105" s="4">
-        <v>6</v>
+      <c r="C105" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>39</v>
@@ -3748,15 +3767,15 @@
         <v>413</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" ht="17">
       <c r="A106" s="2" t="s">
         <v>160</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C106" s="4">
-        <v>6</v>
+      <c r="C106" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>40</v>
@@ -3771,15 +3790,15 @@
         <v>413</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" ht="17">
       <c r="A107" s="2" t="s">
         <v>161</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C107" s="4">
-        <v>4</v>
+      <c r="C107" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>41</v>
@@ -3794,15 +3813,15 @@
         <v>414</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="32">
+    <row r="108" spans="1:7" ht="34">
       <c r="A108" s="2" t="s">
         <v>162</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C108" s="4">
-        <v>4</v>
+      <c r="C108" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>42</v>
@@ -3817,15 +3836,15 @@
         <v>414</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" ht="17">
       <c r="A109" s="2" t="s">
         <v>163</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C109" s="4">
-        <v>6</v>
+      <c r="C109" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>203</v>
@@ -3837,15 +3856,15 @@
         <v>415</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="48">
+    <row r="110" spans="1:7" ht="51">
       <c r="A110" s="2" t="s">
         <v>164</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C110" s="4">
-        <v>6</v>
+      <c r="C110" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>43</v>
@@ -3860,15 +3879,15 @@
         <v>415</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" ht="17">
       <c r="A111" s="2" t="s">
         <v>165</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C111" s="4">
-        <v>6</v>
+      <c r="C111" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>43</v>
@@ -3883,15 +3902,15 @@
         <v>415</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" ht="17">
       <c r="A112" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C112" s="4">
-        <v>6</v>
+      <c r="C112" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>44</v>
@@ -3906,15 +3925,15 @@
         <v>416</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="32">
+    <row r="113" spans="1:7" ht="34">
       <c r="A113" s="2" t="s">
         <v>167</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C113" s="4">
-        <v>6</v>
+      <c r="C113" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>202</v>
@@ -3926,15 +3945,15 @@
         <v>416</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" ht="17">
       <c r="A114" s="2" t="s">
         <v>168</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C114" s="4">
-        <v>6</v>
+      <c r="C114" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>198</v>
@@ -3946,15 +3965,15 @@
         <v>417</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" ht="17">
       <c r="A115" s="2" t="s">
         <v>169</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C115" s="4">
-        <v>6</v>
+      <c r="C115" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>198</v>
@@ -3966,15 +3985,15 @@
         <v>417</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" ht="17">
       <c r="A116" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C116" s="4">
-        <v>6</v>
+      <c r="C116" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>45</v>
@@ -3989,15 +4008,15 @@
         <v>417</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" ht="17">
       <c r="A117" s="2" t="s">
         <v>171</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C117" s="4">
-        <v>6</v>
+      <c r="C117" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>46</v>
@@ -4012,15 +4031,15 @@
         <v>417</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" ht="17">
       <c r="A118" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C118" s="4">
-        <v>6</v>
+      <c r="C118" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>47</v>
@@ -4035,15 +4054,15 @@
         <v>417</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" ht="17">
       <c r="A119" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C119" s="4">
-        <v>6</v>
+      <c r="C119" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>47</v>
@@ -4058,15 +4077,15 @@
         <v>417</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" ht="17">
       <c r="A120" s="2" t="s">
         <v>174</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="C120" s="4">
-        <v>6</v>
+      <c r="C120" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>48</v>
@@ -4081,15 +4100,15 @@
         <v>417</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" ht="17">
       <c r="A121" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C121" s="4">
-        <v>6</v>
+      <c r="C121" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>48</v>
@@ -4104,15 +4123,15 @@
         <v>417</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" ht="17">
       <c r="A122" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C122" s="4">
-        <v>6</v>
+      <c r="C122" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>49</v>
@@ -4127,15 +4146,15 @@
         <v>417</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" ht="17">
       <c r="A123" s="2" t="s">
         <v>177</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C123" s="4">
-        <v>6</v>
+      <c r="C123" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>12</v>
@@ -4150,15 +4169,15 @@
         <v>418</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" ht="17">
       <c r="A124" s="2" t="s">
         <v>178</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C124" s="4">
-        <v>6</v>
+      <c r="C124" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>12</v>
@@ -4170,15 +4189,15 @@
         <v>418</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="80">
+    <row r="125" spans="1:7" ht="85">
       <c r="A125" s="2" t="s">
         <v>179</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C125" s="4">
-        <v>4</v>
+      <c r="C125" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>50</v>
@@ -4193,15 +4212,15 @@
         <v>419</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="96">
+    <row r="126" spans="1:7" ht="102">
       <c r="A126" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C126" s="4">
-        <v>10</v>
+      <c r="C126" s="4" t="s">
+        <v>458</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>51</v>
@@ -4216,15 +4235,15 @@
         <v>419</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" ht="17">
       <c r="A127" s="2" t="s">
         <v>181</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C127" s="4">
-        <v>4</v>
+      <c r="C127" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>207</v>
@@ -4236,15 +4255,15 @@
         <v>420</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" ht="17">
       <c r="A128" s="2" t="s">
         <v>182</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C128" s="4">
-        <v>4</v>
+      <c r="C128" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>52</v>
@@ -4259,15 +4278,15 @@
         <v>420</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="32">
+    <row r="129" spans="1:7" ht="34">
       <c r="A129" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C129" s="4">
-        <v>6</v>
+      <c r="C129" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>207</v>
@@ -4279,15 +4298,15 @@
         <v>420</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="48">
+    <row r="130" spans="1:7" ht="51">
       <c r="A130" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C130" s="4">
-        <v>6</v>
+      <c r="C130" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>207</v>
@@ -4299,15 +4318,15 @@
         <v>420</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" ht="17">
       <c r="A131" s="2" t="s">
         <v>185</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C131" s="4">
-        <v>6</v>
+      <c r="C131" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>207</v>
@@ -4319,15 +4338,15 @@
         <v>420</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="48">
+    <row r="132" spans="1:7" ht="51">
       <c r="A132" s="2" t="s">
         <v>186</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C132" s="4">
-        <v>6</v>
+      <c r="C132" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>43</v>
@@ -4342,15 +4361,15 @@
         <v>420</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" ht="17">
       <c r="A133" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C133" s="4">
-        <v>6</v>
+      <c r="C133" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>53</v>
@@ -4365,15 +4384,15 @@
         <v>420</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="96">
+    <row r="134" spans="1:7" ht="102">
       <c r="A134" s="2" t="s">
         <v>188</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="C134" s="4">
-        <v>4</v>
+      <c r="C134" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>207</v>
@@ -4385,54 +4404,54 @@
         <v>420</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="112">
+    <row r="135" spans="1:7" ht="119">
       <c r="A135" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C135" s="4">
-        <v>4</v>
+      <c r="C135" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="112">
+    <row r="136" spans="1:7" ht="119">
       <c r="A136" s="2" t="s">
         <v>190</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C136" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
+      <c r="C136" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="17">
       <c r="A137" s="2" t="s">
         <v>191</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C137" s="4">
-        <v>6</v>
+      <c r="C137" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="32">
+    <row r="138" spans="1:7" ht="34">
       <c r="A138" s="2" t="s">
         <v>192</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C138" s="4">
-        <v>4</v>
+      <c r="C138" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>54</v>
@@ -4441,15 +4460,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="48">
+    <row r="139" spans="1:7" ht="51">
       <c r="A139" s="2" t="s">
         <v>193</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C139" s="4">
-        <v>4</v>
+      <c r="C139" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>55</v>
@@ -4461,15 +4480,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" ht="17">
       <c r="A140" s="2" t="s">
         <v>194</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C140" s="4">
-        <v>6</v>
+      <c r="C140" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>399</v>
